--- a/UCSD_final_data.xlsx
+++ b/UCSD_final_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7538" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7544" uniqueCount="699">
   <si>
     <t>Restaurant district</t>
   </si>
@@ -2099,6 +2099,21 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Percent Chinese</t>
+  </si>
+  <si>
+    <t>Other Asian restaurants</t>
+  </si>
+  <si>
+    <t>Percent Other Asian</t>
+  </si>
+  <si>
+    <t>Cluster Labels Restaurant 1</t>
+  </si>
+  <si>
+    <t>Cluster Labels Restaurant 2</t>
   </si>
 </sst>
 </file>
@@ -36906,13 +36921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36925,8 +36940,26 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -36942,8 +36975,26 @@
       <c r="E2">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>32.69</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -36959,8 +37010,26 @@
       <c r="E3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>28.57</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -36976,8 +37045,26 @@
       <c r="E4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>32.22</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -36993,8 +37080,26 @@
       <c r="E5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>22.22</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -37010,8 +37115,26 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -37027,8 +37150,26 @@
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -37044,8 +37185,26 @@
       <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -37061,8 +37220,26 @@
       <c r="E9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>31.25</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -37078,8 +37255,26 @@
       <c r="E10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -37095,8 +37290,26 @@
       <c r="E11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -37112,8 +37325,26 @@
       <c r="E12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>23.33</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -37129,8 +37360,26 @@
       <c r="E13">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>17.39</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -37146,8 +37395,26 @@
       <c r="E14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -37163,8 +37430,26 @@
       <c r="E15">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4.55</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -37180,8 +37465,26 @@
       <c r="E16">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>20.69</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -37197,8 +37500,26 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>33.33</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -37214,8 +37535,26 @@
       <c r="E18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>21.05</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -37231,8 +37570,26 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -37248,8 +37605,26 @@
       <c r="E20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>7.69</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -37265,8 +37640,26 @@
       <c r="E21">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.7</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>48.15</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -37282,8 +37675,26 @@
       <c r="E22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -37299,8 +37710,26 @@
       <c r="E23">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.61</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>25.81</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -37316,8 +37745,26 @@
       <c r="E24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>15.38</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -37333,8 +37780,26 @@
       <c r="E25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -37350,8 +37815,26 @@
       <c r="E26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>15.38</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -37367,8 +37850,26 @@
       <c r="E27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>38.1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -37384,8 +37885,26 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -37401,8 +37920,26 @@
       <c r="E29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -37418,8 +37955,26 @@
       <c r="E30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -37435,8 +37990,26 @@
       <c r="E31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -37452,8 +38025,26 @@
       <c r="E32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>31.25</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -37469,8 +38060,26 @@
       <c r="E33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>9.09</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>9.09</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -37486,8 +38095,26 @@
       <c r="E34">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3.7</v>
+      </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>35.19</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -37503,8 +38130,26 @@
       <c r="E35">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2.9</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>17.39</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -37520,8 +38165,26 @@
       <c r="E36">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>26.92</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -37537,8 +38200,26 @@
       <c r="E37">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -37554,8 +38235,26 @@
       <c r="E38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -37571,8 +38270,26 @@
       <c r="E39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -37588,8 +38305,26 @@
       <c r="E40">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>28.57</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -37605,8 +38340,26 @@
       <c r="E41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>22</v>
+      </c>
+      <c r="I41">
+        <v>22</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -37622,8 +38375,26 @@
       <c r="E42">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>29.03</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -37639,8 +38410,26 @@
       <c r="E43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>23</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -37656,8 +38445,26 @@
       <c r="E44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>23.81</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -37673,8 +38480,26 @@
       <c r="E45">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>16.67</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -37690,8 +38515,26 @@
       <c r="E46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -37707,8 +38550,26 @@
       <c r="E47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -37724,8 +38585,26 @@
       <c r="E48">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>28.57</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -37741,8 +38620,26 @@
       <c r="E49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -37758,8 +38655,26 @@
       <c r="E50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>33.33</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -37775,8 +38690,26 @@
       <c r="E51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>30.43</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -37792,8 +38725,26 @@
       <c r="E52">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>24.05</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -37809,8 +38760,26 @@
       <c r="E53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -37826,8 +38795,26 @@
       <c r="E54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -37843,8 +38830,26 @@
       <c r="E55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>40</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -37860,8 +38865,26 @@
       <c r="E56">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>18.75</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -37877,8 +38900,26 @@
       <c r="E57">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2.56</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>23.08</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -37894,8 +38935,26 @@
       <c r="E58">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2.04</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>22.45</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -37911,8 +38970,26 @@
       <c r="E59">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>24.24</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -37928,8 +39005,26 @@
       <c r="E60">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>22</v>
+      </c>
+      <c r="I60">
+        <v>22</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -37945,8 +39040,26 @@
       <c r="E61">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>23.08</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -37962,8 +39075,26 @@
       <c r="E62">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>23.53</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -37979,8 +39110,26 @@
       <c r="E63">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>30.77</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -37996,8 +39145,26 @@
       <c r="E64">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>19</v>
+      </c>
+      <c r="I64">
+        <v>31.67</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -38013,8 +39180,26 @@
       <c r="E65">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1.15</v>
+      </c>
+      <c r="H65">
+        <v>22</v>
+      </c>
+      <c r="I65">
+        <v>25.29</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -38030,8 +39215,26 @@
       <c r="E66">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>21.43</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -38047,8 +39250,26 @@
       <c r="E67">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>12</v>
+      </c>
+      <c r="I67">
+        <v>27.27</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -38064,8 +39285,26 @@
       <c r="E68">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>17.65</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -38081,8 +39320,26 @@
       <c r="E69">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3.03</v>
+      </c>
+      <c r="H69">
+        <v>14</v>
+      </c>
+      <c r="I69">
+        <v>21.21</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -38098,8 +39355,26 @@
       <c r="E70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -38115,8 +39390,26 @@
       <c r="E71">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>6.67</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>13.33</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -38132,8 +39425,26 @@
       <c r="E72">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -38149,8 +39460,26 @@
       <c r="E73">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>4.76</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>33.33</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -38165,6 +39494,24 @@
       </c>
       <c r="E74">
         <v>20</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>25</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
